--- a/resources/fat/MIT045 - Roteiro de Testes -EcoAgro Faturamento.xlsx
+++ b/resources/fat/MIT045 - Roteiro de Testes -EcoAgro Faturamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financeiro\Projeto ERP\Teste Faturamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clientes\brb\ecoagro\resources\fat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8E8AD3-7E7E-4103-82DD-64958D089A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D22A4-F8D9-4521-A639-BFED3F661D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Painel Executivo" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -1034,7 +1034,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1042,10 +1042,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,19 +1066,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,19 +1120,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,13 +1138,13 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="9" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,7 +1180,6 @@
     <xf numFmtId="9" fontId="9" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1196,11 +1189,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1223,28 +1213,22 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,32 +1309,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1359,7 +1343,29 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1857,7 +1863,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CD59101F-4AC2-46D0-B51D-D5821AD4A155}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2859,269 +2870,267 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="11"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="95" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="17">
+      <c r="I6" s="89"/>
+      <c r="J6" s="16">
         <f ca="1">TODAY()</f>
-        <v>44813</v>
-      </c>
-      <c r="K6" s="11"/>
+        <v>44823</v>
+      </c>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="19" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="24">
+      <c r="A9" s="21"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="23">
         <f>COUNTIF(Faturamento!J13:J61,I9)</f>
         <v>13</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <f>(H9/H14)</f>
         <v>0.28260869565217389</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="24">
+      <c r="A10" s="21"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="23">
         <f>COUNTIF(Faturamento!J13:J61,I10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <f>(H10/H14)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="24">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="23">
         <f>COUNTIF(Faturamento!J13:J61,I11)</f>
         <v>3</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f>(H11/H14)</f>
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="24">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="23">
         <f>COUNTIF(Faturamento!J13:J61,I12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <f>(H12/H14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="24">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="23">
         <f>COUNTIF(Faturamento!J13:J61,I13)</f>
         <v>30</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <f>(H13/H14)</f>
         <v>0.65217391304347827</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="48">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="46">
         <f>SUM(H9:H13)</f>
         <v>46</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50">
+      <c r="I14" s="47"/>
+      <c r="J14" s="48">
         <f>SUM(J9:J13)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="27"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -3132,35 +3141,35 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
     </row>
     <row r="19" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3173,30 +3182,30 @@
     <mergeCell ref="H16:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="EA">
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="EA">
       <formula>NOT(ISERROR(SEARCH("EA",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="CO">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="CO">
       <formula>NOT(ISERROR(SEARCH("CO",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="AT">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="AT">
       <formula>NOT(ISERROR(SEARCH("AT",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="NI">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="NI">
       <formula>NOT(ISERROR(SEARCH("NI",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="containsText" dxfId="63" priority="6" operator="containsText" text="EA">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="EA">
       <formula>NOT(ISERROR(SEARCH("EA",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="CO">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="CO">
       <formula>NOT(ISERROR(SEARCH("CO",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="AT">
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="AT">
       <formula>NOT(ISERROR(SEARCH("AT",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="NI">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="NI">
       <formula>NOT(ISERROR(SEARCH("NI",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3214,1721 +3223,1718 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="95.33203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="57" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="57" customWidth="1"/>
-    <col min="8" max="9" width="10.44140625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="56" customWidth="1"/>
-    <col min="11" max="11" width="49.44140625" style="56" customWidth="1"/>
-    <col min="12" max="1024" width="9.109375" style="56"/>
+    <col min="1" max="1" width="7.6640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="53" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="49.44140625" style="53" customWidth="1"/>
+    <col min="12" max="1024" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="63" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" s="63" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:11" s="63" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+    <row r="1" spans="1:11" s="59" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" s="59" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" s="59" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" s="59" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-    </row>
-    <row r="6" spans="1:11" s="63" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-    </row>
-    <row r="7" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="1:11" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+    </row>
+    <row r="6" spans="1:11" s="59" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+    </row>
+    <row r="7" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="1:11" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="1:11" s="65" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+    </row>
+    <row r="10" spans="1:11" s="60" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="75" t="s">
+      <c r="K11" s="69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="105" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="A13" s="71">
         <v>1</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80">
+      <c r="D13" s="73"/>
+      <c r="E13" s="74">
         <v>3</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="83"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="K13" s="77"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
         <f t="shared" ref="A14:A19" si="0">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80">
+      <c r="D14" s="73"/>
+      <c r="E14" s="74">
         <v>3</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="83"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
+      <c r="K14" s="77"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80">
+      <c r="D15" s="73"/>
+      <c r="E15" s="74">
         <v>3</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82" t="s">
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="83"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="K15" s="77"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80">
+      <c r="D16" s="73"/>
+      <c r="E16" s="74">
         <v>3</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="83"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="K16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80">
+      <c r="D17" s="73"/>
+      <c r="E17" s="74">
         <v>3</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82" t="s">
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="K17" s="77"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80">
+      <c r="D18" s="73"/>
+      <c r="E18" s="74">
         <v>3</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="83"/>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="K18" s="77"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80">
+      <c r="D19" s="73"/>
+      <c r="E19" s="74">
         <v>3</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82" t="s">
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="83"/>
+      <c r="K19" s="77"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="106" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
+      <c r="A21" s="71">
         <f>A19+1</f>
         <v>8</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80">
+      <c r="D21" s="73"/>
+      <c r="E21" s="74">
         <v>1</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82" t="s">
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="77" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
+      <c r="A22" s="71">
         <f>A21+1</f>
         <v>9</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80">
+      <c r="D22" s="73"/>
+      <c r="E22" s="74">
         <v>1</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82" t="s">
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="83" t="s">
+      <c r="K22" s="77" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+    <row r="23" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="71">
         <f>A22+1</f>
         <v>10</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="83"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
+      <c r="A24" s="71">
         <f>A23+1</f>
         <v>11</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80">
+      <c r="D24" s="73"/>
+      <c r="E24" s="74">
         <v>5</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82" t="s">
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="83"/>
+      <c r="K24" s="77"/>
     </row>
     <row r="25" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+      <c r="A25" s="71">
         <f>A24+1</f>
         <v>12</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80">
+      <c r="D25" s="73"/>
+      <c r="E25" s="74">
         <v>1</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="83"/>
-    </row>
-    <row r="26" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
+      <c r="K25" s="77"/>
+    </row>
+    <row r="26" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="71">
         <f>A25+1</f>
         <v>13</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80">
+      <c r="D26" s="73"/>
+      <c r="E26" s="74">
         <v>1</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="83"/>
+      <c r="K26" s="77"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="106" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="71">
         <f>A26+1</f>
         <v>14</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82" t="s">
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="83"/>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
         <f t="shared" ref="A29:A54" si="1">A28+1</f>
         <v>15</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80">
+      <c r="C29" s="92"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74">
         <v>1</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="82" t="s">
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="83"/>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
+      <c r="K29" s="77"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80">
+      <c r="C30" s="92"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74">
         <v>1</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="83"/>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
+      <c r="K30" s="77"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80">
+      <c r="C31" s="92"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74">
         <v>1</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="82" t="s">
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="83"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
+      <c r="K31" s="77"/>
+    </row>
+    <row r="32" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="83"/>
-    </row>
-    <row r="33" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
+      <c r="K32" s="77"/>
+    </row>
+    <row r="33" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="80" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="82" t="s">
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="83"/>
-    </row>
-    <row r="34" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77">
+      <c r="K33" s="77"/>
+    </row>
+    <row r="34" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="82" t="s">
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="83"/>
-    </row>
-    <row r="35" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77">
+      <c r="K34" s="77"/>
+    </row>
+    <row r="35" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="80" t="s">
+      <c r="D35" s="73"/>
+      <c r="E35" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82" t="s">
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="83"/>
-    </row>
-    <row r="36" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
+      <c r="K35" s="77"/>
+    </row>
+    <row r="36" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="71">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="80">
+      <c r="D36" s="73"/>
+      <c r="E36" s="74">
         <v>1</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="82" t="s">
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="83"/>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77">
+      <c r="K36" s="77"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80">
+      <c r="D37" s="73"/>
+      <c r="E37" s="74">
         <v>1</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82" t="s">
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="83"/>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77">
+      <c r="K37" s="77"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="71">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80" t="s">
+      <c r="C38" s="92"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="82" t="s">
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="83"/>
+      <c r="K38" s="77"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="77">
+      <c r="A39" s="71">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="103"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="80" t="s">
+      <c r="C39" s="92"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82" t="s">
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="83"/>
-    </row>
-    <row r="40" spans="1:11" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77">
+      <c r="K39" s="77"/>
+    </row>
+    <row r="40" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="71">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="80" t="s">
+      <c r="E40" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="82" t="s">
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="83"/>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77">
+      <c r="K40" s="77"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="71">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="C41" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80">
+      <c r="D41" s="73"/>
+      <c r="E41" s="74">
         <v>1</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82" t="s">
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="83"/>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77">
+      <c r="K41" s="77"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="71">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80">
+      <c r="C42" s="92"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74">
         <v>1</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="82" t="s">
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="83"/>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77">
+      <c r="K42" s="77"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="71">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="80">
+      <c r="C43" s="92"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74">
         <v>1</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="82" t="s">
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="83" t="s">
+      <c r="K43" s="77" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
+      <c r="A44" s="71">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="80">
+      <c r="C44" s="92"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74">
         <v>1</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82" t="s">
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="83" t="s">
+      <c r="K44" s="77" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="77">
+      <c r="A45" s="71">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="80">
+      <c r="C45" s="92"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74">
         <v>1</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="82" t="s">
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="83" t="s">
+      <c r="K45" s="77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="71">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="80">
+      <c r="C46" s="92"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74">
         <v>0</v>
       </c>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="82" t="s">
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="83"/>
-    </row>
-    <row r="47" spans="1:11" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77">
+      <c r="K46" s="77"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="71">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="80">
+      <c r="D47" s="73"/>
+      <c r="E47" s="74">
         <v>1</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82" t="s">
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="83"/>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77">
+      <c r="K47" s="77"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="71">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="80">
+      <c r="C48" s="92"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74">
         <v>1</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82" t="s">
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K48" s="83"/>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77">
+      <c r="K48" s="77"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="71">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="80">
+      <c r="C49" s="92"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74">
         <v>1</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82" t="s">
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="83"/>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77">
+      <c r="K49" s="77"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="71">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="80">
+      <c r="C50" s="92"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74">
         <v>0</v>
       </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="82" t="s">
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="83"/>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77">
+      <c r="K50" s="77"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="71">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="80">
+      <c r="C51" s="92"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74">
         <v>1</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="82" t="s">
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K51" s="83"/>
+      <c r="K51" s="77"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="77">
+      <c r="A52" s="71">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="80">
+      <c r="C52" s="92"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="74">
         <v>0</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82" t="s">
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="83"/>
+      <c r="K52" s="77"/>
     </row>
     <row r="53" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="77">
+      <c r="A53" s="71">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="80">
+      <c r="D53" s="73"/>
+      <c r="E53" s="74">
         <v>0</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="82" t="s">
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K53" s="83"/>
+      <c r="K53" s="77"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="77">
+      <c r="A54" s="71">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="80">
+      <c r="D54" s="73"/>
+      <c r="E54" s="74">
         <v>2</v>
       </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="82" t="s">
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="83"/>
-    </row>
-    <row r="55" spans="1:11" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
-      <c r="B55" s="104" t="s">
+      <c r="K54" s="77"/>
+    </row>
+    <row r="55" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="71"/>
+      <c r="B55" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="85"/>
-    </row>
-    <row r="56" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77">
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="79"/>
+    </row>
+    <row r="56" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="71">
         <f>A54+1</f>
         <v>41</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="80">
+      <c r="D56" s="73"/>
+      <c r="E56" s="74">
         <v>2</v>
       </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82" t="s">
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="85"/>
-    </row>
-    <row r="57" spans="1:11" s="65" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="77">
+      <c r="K56" s="79"/>
+    </row>
+    <row r="57" spans="1:11" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="71">
         <f>A56+1</f>
         <v>42</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="80">
+      <c r="D57" s="73"/>
+      <c r="E57" s="74">
         <v>2</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="82" t="s">
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="85"/>
-    </row>
-    <row r="58" spans="1:11" s="65" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="77">
+      <c r="K57" s="79"/>
+    </row>
+    <row r="58" spans="1:11" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="71">
         <f>A57+1</f>
         <v>43</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="80">
+      <c r="D58" s="73"/>
+      <c r="E58" s="74">
         <v>2</v>
       </c>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="82" t="s">
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="85"/>
-    </row>
-    <row r="59" spans="1:11" s="65" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
+      <c r="K58" s="79"/>
+    </row>
+    <row r="59" spans="1:11" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="71">
         <f>A57+1</f>
         <v>43</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="80">
+      <c r="D59" s="73"/>
+      <c r="E59" s="74">
         <v>2</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="82" t="s">
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K59" s="85"/>
-    </row>
-    <row r="60" spans="1:11" s="65" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="77">
+      <c r="K59" s="79"/>
+    </row>
+    <row r="60" spans="1:11" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="71">
         <f>A58+1</f>
         <v>44</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="80">
+      <c r="D60" s="73"/>
+      <c r="E60" s="74">
         <v>2</v>
       </c>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="82" t="s">
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="85"/>
-    </row>
-    <row r="61" spans="1:11" s="65" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="77">
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="1:11" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="71">
         <f>A60+1</f>
         <v>45</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="80">
+      <c r="D61" s="73"/>
+      <c r="E61" s="74">
         <v>2</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="82" t="s">
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K61" s="85"/>
-    </row>
-    <row r="62" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="86">
+      <c r="K61" s="79"/>
+    </row>
+    <row r="62" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="80">
         <v>46</v>
       </c>
-      <c r="B62" s="87" t="s">
+      <c r="B62" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="91" t="s">
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="92"/>
-    </row>
-    <row r="63" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86">
+      <c r="K62" s="86"/>
+    </row>
+    <row r="63" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="80">
         <v>47</v>
       </c>
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="91" t="s">
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K63" s="92"/>
-    </row>
-    <row r="64" spans="1:11" s="65" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86">
+      <c r="K63" s="86"/>
+    </row>
+    <row r="64" spans="1:11" s="60" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="80">
         <v>48</v>
       </c>
-      <c r="B64" s="87" t="s">
+      <c r="B64" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="91" t="s">
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K64" s="92"/>
-    </row>
-    <row r="65" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86">
+      <c r="K64" s="86"/>
+    </row>
+    <row r="65" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="80">
         <v>49</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="91" t="s">
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="92"/>
-    </row>
-    <row r="66" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86">
+      <c r="K65" s="86"/>
+    </row>
+    <row r="66" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="80">
         <v>51</v>
       </c>
-      <c r="B66" s="87" t="s">
+      <c r="B66" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="91" t="s">
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="92"/>
-    </row>
-    <row r="67" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86">
+      <c r="K66" s="86"/>
+    </row>
+    <row r="67" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="80">
         <v>52</v>
       </c>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="91" t="s">
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="92"/>
-    </row>
-    <row r="68" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="E68" s="55"/>
-    </row>
-    <row r="69" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="E69" s="55"/>
-    </row>
-    <row r="70" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="E70" s="55"/>
-    </row>
-    <row r="71" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="E71" s="55"/>
-    </row>
-    <row r="72" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="E72" s="55"/>
-    </row>
-    <row r="73" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="E73" s="55"/>
-    </row>
-    <row r="74" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="E74" s="55"/>
-    </row>
-    <row r="75" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="E75" s="55"/>
-    </row>
-    <row r="76" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="E76" s="55"/>
-    </row>
-    <row r="77" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="E77" s="55"/>
-    </row>
-    <row r="78" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
-      <c r="E78" s="55"/>
-    </row>
-    <row r="79" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
-      <c r="E79" s="55"/>
-    </row>
-    <row r="80" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
-      <c r="E80" s="55"/>
-    </row>
-    <row r="81" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="E81" s="55"/>
-    </row>
-    <row r="82" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="E82" s="55"/>
-    </row>
-    <row r="83" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="E83" s="55"/>
-    </row>
-    <row r="84" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="E84" s="55"/>
-    </row>
-    <row r="85" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="E85" s="55"/>
-    </row>
-    <row r="86" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="E86" s="55"/>
-    </row>
-    <row r="87" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="E87" s="55"/>
-    </row>
-    <row r="88" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="E88" s="55"/>
-    </row>
-    <row r="89" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="E89" s="55"/>
-    </row>
-    <row r="90" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="E90" s="55"/>
-    </row>
-    <row r="91" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="E91" s="55"/>
-    </row>
-    <row r="92" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="E92" s="55"/>
-    </row>
-    <row r="93" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="E93" s="55"/>
-    </row>
-    <row r="94" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="E94" s="55"/>
-    </row>
-    <row r="95" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="E95" s="55"/>
-    </row>
-    <row r="96" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="E96" s="55"/>
-    </row>
-    <row r="97" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="E97" s="55"/>
-    </row>
-    <row r="98" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="E98" s="55"/>
-    </row>
-    <row r="99" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="E99" s="55"/>
-    </row>
-    <row r="100" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="E100" s="55"/>
-    </row>
-    <row r="101" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="E101" s="55"/>
-    </row>
-    <row r="102" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
-      <c r="E102" s="55"/>
-    </row>
-    <row r="103" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
-      <c r="E103" s="55"/>
-    </row>
-    <row r="104" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
-      <c r="E104" s="55"/>
-    </row>
-    <row r="105" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
-      <c r="E105" s="55"/>
-    </row>
-    <row r="106" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="E106" s="55"/>
-    </row>
-    <row r="107" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="E107" s="55"/>
-    </row>
-    <row r="108" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="E108" s="55"/>
-    </row>
-    <row r="109" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="E109" s="55"/>
-    </row>
-    <row r="110" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="E110" s="55"/>
-    </row>
-    <row r="111" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="E111" s="55"/>
-    </row>
-    <row r="112" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="E112" s="55"/>
-    </row>
-    <row r="113" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="E113" s="55"/>
-    </row>
-    <row r="114" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
-      <c r="E114" s="55"/>
-    </row>
-    <row r="115" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
-      <c r="E115" s="55"/>
-    </row>
-    <row r="116" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
-      <c r="E116" s="55"/>
-    </row>
-    <row r="117" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="E117" s="55"/>
-    </row>
-    <row r="118" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
-      <c r="E118" s="55"/>
-    </row>
-    <row r="119" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
-      <c r="E119" s="55"/>
-    </row>
-    <row r="120" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-      <c r="E120" s="55"/>
-    </row>
-    <row r="121" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="E121" s="55"/>
-    </row>
-    <row r="122" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="E122" s="55"/>
-    </row>
-    <row r="123" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="E123" s="55"/>
-    </row>
-    <row r="124" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="E124" s="55"/>
-    </row>
-    <row r="125" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="E125" s="55"/>
-    </row>
-    <row r="126" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="E126" s="55"/>
-    </row>
-    <row r="127" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="E127" s="55"/>
-    </row>
-    <row r="128" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
-      <c r="E128" s="55"/>
-    </row>
-    <row r="129" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
-      <c r="E129" s="55"/>
-    </row>
-    <row r="130" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="55"/>
-      <c r="E130" s="55"/>
-    </row>
-    <row r="131" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
-      <c r="E131" s="55"/>
-    </row>
-    <row r="132" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
-      <c r="E132" s="55"/>
-    </row>
-    <row r="133" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="E133" s="55"/>
-    </row>
-    <row r="134" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
-      <c r="E134" s="55"/>
+      <c r="K67" s="86"/>
+    </row>
+    <row r="68" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="52"/>
+      <c r="E68" s="52"/>
+    </row>
+    <row r="69" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="52"/>
+      <c r="E69" s="52"/>
+    </row>
+    <row r="70" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="52"/>
+      <c r="E70" s="52"/>
+    </row>
+    <row r="71" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="52"/>
+      <c r="E71" s="52"/>
+    </row>
+    <row r="72" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="52"/>
+      <c r="E72" s="52"/>
+    </row>
+    <row r="73" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="52"/>
+      <c r="E73" s="52"/>
+    </row>
+    <row r="74" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="52"/>
+      <c r="E74" s="52"/>
+    </row>
+    <row r="75" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="52"/>
+      <c r="E75" s="52"/>
+    </row>
+    <row r="76" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="52"/>
+      <c r="E76" s="52"/>
+    </row>
+    <row r="77" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="52"/>
+      <c r="E77" s="52"/>
+    </row>
+    <row r="78" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="52"/>
+      <c r="E78" s="52"/>
+    </row>
+    <row r="79" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="52"/>
+      <c r="E79" s="52"/>
+    </row>
+    <row r="80" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="52"/>
+      <c r="E80" s="52"/>
+    </row>
+    <row r="81" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="52"/>
+      <c r="E81" s="52"/>
+    </row>
+    <row r="82" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="52"/>
+      <c r="E82" s="52"/>
+    </row>
+    <row r="83" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="52"/>
+      <c r="E83" s="52"/>
+    </row>
+    <row r="84" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="52"/>
+      <c r="E84" s="52"/>
+    </row>
+    <row r="85" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="52"/>
+      <c r="E85" s="52"/>
+    </row>
+    <row r="86" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="52"/>
+      <c r="E86" s="52"/>
+    </row>
+    <row r="87" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="52"/>
+      <c r="E87" s="52"/>
+    </row>
+    <row r="88" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="52"/>
+      <c r="E88" s="52"/>
+    </row>
+    <row r="89" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="52"/>
+      <c r="E89" s="52"/>
+    </row>
+    <row r="90" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="52"/>
+      <c r="E90" s="52"/>
+    </row>
+    <row r="91" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="52"/>
+      <c r="E91" s="52"/>
+    </row>
+    <row r="92" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="52"/>
+      <c r="E92" s="52"/>
+    </row>
+    <row r="93" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="52"/>
+      <c r="E93" s="52"/>
+    </row>
+    <row r="94" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="52"/>
+      <c r="E94" s="52"/>
+    </row>
+    <row r="95" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="52"/>
+      <c r="E95" s="52"/>
+    </row>
+    <row r="96" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="52"/>
+      <c r="E96" s="52"/>
+    </row>
+    <row r="97" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="52"/>
+      <c r="E97" s="52"/>
+    </row>
+    <row r="98" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="52"/>
+      <c r="E98" s="52"/>
+    </row>
+    <row r="99" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="52"/>
+      <c r="E99" s="52"/>
+    </row>
+    <row r="100" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="52"/>
+      <c r="E100" s="52"/>
+    </row>
+    <row r="101" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="52"/>
+      <c r="E101" s="52"/>
+    </row>
+    <row r="102" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="52"/>
+      <c r="E102" s="52"/>
+    </row>
+    <row r="103" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="52"/>
+      <c r="E103" s="52"/>
+    </row>
+    <row r="104" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="52"/>
+      <c r="E104" s="52"/>
+    </row>
+    <row r="105" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="52"/>
+      <c r="E105" s="52"/>
+    </row>
+    <row r="106" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="52"/>
+      <c r="E106" s="52"/>
+    </row>
+    <row r="107" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="52"/>
+      <c r="E107" s="52"/>
+    </row>
+    <row r="108" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="52"/>
+      <c r="E108" s="52"/>
+    </row>
+    <row r="109" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="52"/>
+      <c r="E109" s="52"/>
+    </row>
+    <row r="110" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="52"/>
+      <c r="E110" s="52"/>
+    </row>
+    <row r="111" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="52"/>
+      <c r="E111" s="52"/>
+    </row>
+    <row r="112" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="52"/>
+      <c r="E112" s="52"/>
+    </row>
+    <row r="113" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="52"/>
+      <c r="E113" s="52"/>
+    </row>
+    <row r="114" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="52"/>
+      <c r="E114" s="52"/>
+    </row>
+    <row r="115" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="52"/>
+      <c r="E115" s="52"/>
+    </row>
+    <row r="116" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="52"/>
+      <c r="E116" s="52"/>
+    </row>
+    <row r="117" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="52"/>
+      <c r="E117" s="52"/>
+    </row>
+    <row r="118" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="52"/>
+      <c r="E118" s="52"/>
+    </row>
+    <row r="119" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="52"/>
+      <c r="E119" s="52"/>
+    </row>
+    <row r="120" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="52"/>
+      <c r="E120" s="52"/>
+    </row>
+    <row r="121" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="52"/>
+      <c r="E121" s="52"/>
+    </row>
+    <row r="122" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="52"/>
+      <c r="E122" s="52"/>
+    </row>
+    <row r="123" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="52"/>
+      <c r="E123" s="52"/>
+    </row>
+    <row r="124" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="52"/>
+      <c r="E124" s="52"/>
+    </row>
+    <row r="125" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="52"/>
+      <c r="E125" s="52"/>
+    </row>
+    <row r="126" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="52"/>
+      <c r="E126" s="52"/>
+    </row>
+    <row r="127" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="52"/>
+      <c r="E127" s="52"/>
+    </row>
+    <row r="128" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="52"/>
+      <c r="E128" s="52"/>
+    </row>
+    <row r="129" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="52"/>
+      <c r="E129" s="52"/>
+    </row>
+    <row r="130" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="52"/>
+      <c r="E130" s="52"/>
+    </row>
+    <row r="131" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="52"/>
+      <c r="E131" s="52"/>
+    </row>
+    <row r="132" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="52"/>
+      <c r="E132" s="52"/>
+    </row>
+    <row r="133" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="52"/>
+      <c r="E133" s="52"/>
+    </row>
+    <row r="134" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="52"/>
+      <c r="E134" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:K67" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="9">
-      <filters blank="1">
-        <filter val="Em andamento"/>
-        <filter val="Não Iniciado"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="B55:J55"/>
@@ -4937,214 +4943,208 @@
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A5:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J13:J19 J60:J67">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J26">
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J42">
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J43">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J51">
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J54">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J58 J60:J67">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J26">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J54">
-    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="43" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="44" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J58">
-    <cfRule type="cellIs" dxfId="14" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="47" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="48" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="49" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="50" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="51" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="9" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="52" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="53" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="54" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="55" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="56" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="4" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="57" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="58" operator="equal">
       <formula>"Em andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="59" operator="equal">
       <formula>"Não aplicável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="60" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="equal">
       <formula>"Validado"</formula>
     </cfRule>
   </conditionalFormatting>
